--- a/stage.xlsx
+++ b/stage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aditya Mazumdar\Desktop\teeth disease prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BB3219-E026-4969-90AA-366E0E083AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACBD8E8-0DD6-414B-AF30-E559600E157B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Models</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>CatBoost</t>
+  </si>
+  <si>
+    <t>ANN</t>
   </si>
 </sst>
 </file>
@@ -384,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -475,6 +478,14 @@
         <v>0.61899999999999999</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>0.57140000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
